--- a/base_data/MG1 - 副本.xlsx
+++ b/base_data/MG1 - 副本.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Matlab Workspace\Generalized_MG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Matlab Workspace\Generalized_MG\base_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="L1" sheetId="1" r:id="rId9"/>
     <sheet name="L2" sheetId="5" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>Dishwasher</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>span</t>
+  </si>
+  <si>
+    <t>TIME_d</t>
+  </si>
+  <si>
+    <t>TIME_a</t>
   </si>
 </sst>
 </file>
@@ -236,13 +242,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="h:mm"/>
+    <numFmt numFmtId="165" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -250,7 +256,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -284,7 +290,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -381,6 +387,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -416,6 +439,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,12 +614,12 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -611,7 +651,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -643,7 +683,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -672,7 +712,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
@@ -680,7 +720,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
         <v>56</v>
       </c>
@@ -698,12 +738,12 @@
       <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -721,7 +761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -741,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -761,7 +801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -781,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6.25E-2</v>
       </c>
@@ -795,7 +835,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -809,7 +849,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.104166666666667</v>
       </c>
@@ -823,7 +863,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.125</v>
       </c>
@@ -837,7 +877,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.14583333333333301</v>
       </c>
@@ -851,7 +891,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.16666666666666699</v>
       </c>
@@ -865,7 +905,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.1875</v>
       </c>
@@ -879,7 +919,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.20833333333333301</v>
       </c>
@@ -893,7 +933,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.22916666666666699</v>
       </c>
@@ -907,7 +947,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.25</v>
       </c>
@@ -921,7 +961,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.27083333333333298</v>
       </c>
@@ -935,7 +975,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0.29166666666666702</v>
       </c>
@@ -949,7 +989,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0.3125</v>
       </c>
@@ -963,7 +1003,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.33333333333333298</v>
       </c>
@@ -977,7 +1017,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.35416666666666702</v>
       </c>
@@ -991,7 +1031,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.375</v>
       </c>
@@ -1005,7 +1045,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.39583333333333298</v>
       </c>
@@ -1019,7 +1059,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.41666666666666702</v>
       </c>
@@ -1033,7 +1073,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0.4375</v>
       </c>
@@ -1047,7 +1087,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0.45833333333333298</v>
       </c>
@@ -1061,7 +1101,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.47916666666666702</v>
       </c>
@@ -1075,7 +1115,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -1089,7 +1129,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.52083333333333304</v>
       </c>
@@ -1103,7 +1143,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.54166666666666696</v>
       </c>
@@ -1117,7 +1157,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.5625</v>
       </c>
@@ -1131,7 +1171,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>0.58333333333333304</v>
       </c>
@@ -1145,7 +1185,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0.60416666666666696</v>
       </c>
@@ -1159,7 +1199,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.625</v>
       </c>
@@ -1173,7 +1213,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.64583333333333304</v>
       </c>
@@ -1187,7 +1227,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.66666666666666696</v>
       </c>
@@ -1201,7 +1241,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.6875</v>
       </c>
@@ -1215,7 +1255,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.70833333333333304</v>
       </c>
@@ -1229,7 +1269,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>0.72916666666666696</v>
       </c>
@@ -1243,7 +1283,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0.75</v>
       </c>
@@ -1257,7 +1297,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.77083333333333304</v>
       </c>
@@ -1271,7 +1311,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.79166666666666696</v>
       </c>
@@ -1285,7 +1325,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.8125</v>
       </c>
@@ -1299,7 +1339,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.83333333333333304</v>
       </c>
@@ -1313,7 +1353,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.85416666666666696</v>
       </c>
@@ -1327,7 +1367,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>0.875</v>
       </c>
@@ -1341,7 +1381,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0.89583333333333304</v>
       </c>
@@ -1355,7 +1395,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.91666666666666696</v>
       </c>
@@ -1369,7 +1409,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.9375</v>
       </c>
@@ -1383,7 +1423,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.95833333333333304</v>
       </c>
@@ -1397,7 +1437,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.97916666666666696</v>
       </c>
@@ -1424,15 +1464,15 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1449,7 +1489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1469,7 +1509,7 @@
         <v>0.1749522</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1489,7 +1529,7 @@
         <v>0.14421613124375068</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -1509,7 +1549,7 @@
         <v>0.1316232</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6.25E-2</v>
       </c>
@@ -1529,7 +1569,7 @@
         <v>0.11136303227283768</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -1549,7 +1589,7 @@
         <v>0.10477740000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.104166666666667</v>
       </c>
@@ -1569,7 +1609,7 @@
         <v>0.10509521527365598</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.125</v>
       </c>
@@ -1589,7 +1629,7 @@
         <v>0.1059288</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.14583333333333301</v>
       </c>
@@ -1609,7 +1649,7 @@
         <v>0.11169539751042631</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.16666666666666699</v>
       </c>
@@ -1629,7 +1669,7 @@
         <v>0.1144128</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.1875</v>
       </c>
@@ -1649,7 +1689,7 @@
         <v>0.12179680266159128</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.20833333333333301</v>
       </c>
@@ -1669,7 +1709,7 @@
         <v>0.1256844</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.22916666666666699</v>
       </c>
@@ -1689,7 +1729,7 @@
         <v>0.13265136970502556</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.25</v>
       </c>
@@ -1709,7 +1749,7 @@
         <v>0.1685286</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.27083333333333298</v>
       </c>
@@ -1729,7 +1769,7 @@
         <v>0.17100927326883847</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0.29166666666666702</v>
       </c>
@@ -1749,7 +1789,7 @@
         <v>0.18937500000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0.3125</v>
       </c>
@@ -1769,7 +1809,7 @@
         <v>0.20498884542141108</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.33333333333333298</v>
       </c>
@@ -1789,7 +1829,7 @@
         <v>0.22070520000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.35416666666666702</v>
       </c>
@@ -1809,7 +1849,7 @@
         <v>0.2280334209696456</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.375</v>
       </c>
@@ -1829,7 +1869,7 @@
         <v>0.22834080000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.39583333333333298</v>
       </c>
@@ -1849,7 +1889,7 @@
         <v>0.25177349804085947</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.41666666666666702</v>
       </c>
@@ -1869,7 +1909,7 @@
         <v>0.29718240000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0.4375</v>
       </c>
@@ -1889,7 +1929,7 @@
         <v>0.2721070714234724</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0.45833333333333298</v>
       </c>
@@ -1909,7 +1949,7 @@
         <v>0.25433820000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.47916666666666702</v>
       </c>
@@ -1929,7 +1969,7 @@
         <v>0.25867836113061188</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -1949,7 +1989,7 @@
         <v>0.27373019999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.52083333333333304</v>
       </c>
@@ -1969,7 +2009,7 @@
         <v>0.26981489659372243</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.54166666666666696</v>
       </c>
@@ -1989,7 +2029,7 @@
         <v>0.2685186</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.5625</v>
       </c>
@@ -2009,7 +2049,7 @@
         <v>0.28666718893228033</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>0.58333333333333304</v>
       </c>
@@ -2029,7 +2069,7 @@
         <v>0.33966299999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0.60416666666666696</v>
       </c>
@@ -2049,7 +2089,7 @@
         <v>0.30339104015753648</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.625</v>
       </c>
@@ -2069,7 +2109,7 @@
         <v>0.26797320000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.64583333333333304</v>
       </c>
@@ -2089,7 +2129,7 @@
         <v>0.22717662043454553</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.66666666666666696</v>
       </c>
@@ -2109,7 +2149,7 @@
         <v>0.20961539999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.6875</v>
       </c>
@@ -2129,7 +2169,7 @@
         <v>0.18839782631825785</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.70833333333333304</v>
       </c>
@@ -2149,7 +2189,7 @@
         <v>0.18579959999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>0.72916666666666696</v>
       </c>
@@ -2169,7 +2209,7 @@
         <v>0.17318472590026343</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0.75</v>
       </c>
@@ -2189,7 +2229,7 @@
         <v>0.17264939999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.77083333333333304</v>
       </c>
@@ -2209,7 +2249,7 @@
         <v>0.18093971527895159</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.79166666666666696</v>
       </c>
@@ -2229,7 +2269,7 @@
         <v>0.18779940000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.8125</v>
       </c>
@@ -2249,7 +2289,7 @@
         <v>0.18682492561669134</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.83333333333333304</v>
       </c>
@@ -2269,7 +2309,7 @@
         <v>0.18076980000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.85416666666666696</v>
       </c>
@@ -2289,7 +2329,7 @@
         <v>0.17345060165986484</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>0.875</v>
       </c>
@@ -2309,7 +2349,7 @@
         <v>0.13174440000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0.89583333333333304</v>
       </c>
@@ -2329,7 +2369,7 @@
         <v>0.1333829250209892</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.91666666666666696</v>
       </c>
@@ -2349,7 +2389,7 @@
         <v>0.13810739999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.9375</v>
       </c>
@@ -2369,7 +2409,7 @@
         <v>0.12837643404889149</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.95833333333333304</v>
       </c>
@@ -2389,7 +2429,7 @@
         <v>0.1265328</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.97916666666666696</v>
       </c>
@@ -2423,9 +2463,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2436,7 +2476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2460,12 +2500,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2476,7 +2516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -2487,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -2498,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -2509,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6.25E-2</v>
       </c>
@@ -2520,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -2531,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.104166666666667</v>
       </c>
@@ -2542,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.125</v>
       </c>
@@ -2553,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.14583333333333301</v>
       </c>
@@ -2564,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.16666666666666699</v>
       </c>
@@ -2575,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.1875</v>
       </c>
@@ -2586,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.20833333333333301</v>
       </c>
@@ -2597,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.22916666666666699</v>
       </c>
@@ -2608,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.25</v>
       </c>
@@ -2619,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.27083333333333298</v>
       </c>
@@ -2630,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0.29166666666666702</v>
       </c>
@@ -2641,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0.3125</v>
       </c>
@@ -2652,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.33333333333333298</v>
       </c>
@@ -2663,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.35416666666666702</v>
       </c>
@@ -2674,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.375</v>
       </c>
@@ -2685,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.39583333333333298</v>
       </c>
@@ -2696,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.41666666666666702</v>
       </c>
@@ -2707,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0.4375</v>
       </c>
@@ -2718,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0.45833333333333298</v>
       </c>
@@ -2729,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.47916666666666702</v>
       </c>
@@ -2740,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -2751,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.52083333333333304</v>
       </c>
@@ -2762,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.54166666666666696</v>
       </c>
@@ -2773,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.5625</v>
       </c>
@@ -2784,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>0.58333333333333304</v>
       </c>
@@ -2795,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0.60416666666666696</v>
       </c>
@@ -2806,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.625</v>
       </c>
@@ -2817,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.64583333333333304</v>
       </c>
@@ -2828,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.66666666666666696</v>
       </c>
@@ -2839,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.6875</v>
       </c>
@@ -2850,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.70833333333333304</v>
       </c>
@@ -2861,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>0.72916666666666696</v>
       </c>
@@ -2872,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0.75</v>
       </c>
@@ -2883,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.77083333333333304</v>
       </c>
@@ -2894,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.79166666666666696</v>
       </c>
@@ -2905,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.8125</v>
       </c>
@@ -2916,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.83333333333333304</v>
       </c>
@@ -2927,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.85416666666666696</v>
       </c>
@@ -2938,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>0.875</v>
       </c>
@@ -2949,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0.89583333333333304</v>
       </c>
@@ -2960,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.91666666666666696</v>
       </c>
@@ -2971,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.9375</v>
       </c>
@@ -2982,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.95833333333333304</v>
       </c>
@@ -2993,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.97916666666666696</v>
       </c>
@@ -3017,12 +3057,12 @@
       <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -3054,7 +3094,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3086,7 +3126,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3118,7 +3158,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3150,7 +3190,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3182,7 +3222,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3221,15 +3261,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -3260,8 +3300,14 @@
       <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3291,6 +3337,12 @@
       </c>
       <c r="J2" s="1">
         <v>0.7</v>
+      </c>
+      <c r="K2" s="1">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3306,13 +3358,13 @@
       <selection activeCell="A22" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3320,7 +3372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -3328,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -3336,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3344,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6.25E-2</v>
       </c>
@@ -3352,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -3360,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.104166666666667</v>
       </c>
@@ -3368,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.125</v>
       </c>
@@ -3376,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.14583333333333301</v>
       </c>
@@ -3384,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.16666666666666699</v>
       </c>
@@ -3392,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.1875</v>
       </c>
@@ -3400,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.20833333333333301</v>
       </c>
@@ -3408,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.22916666666666699</v>
       </c>
@@ -3416,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.25</v>
       </c>
@@ -3424,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.27083333333333298</v>
       </c>
@@ -3432,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0.29166666666666702</v>
       </c>
@@ -3440,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0.3125</v>
       </c>
@@ -3448,7 +3500,7 @@
         <v>0.107941315256702</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.33333333333333298</v>
       </c>
@@ -3456,7 +3508,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.35416666666666702</v>
       </c>
@@ -3464,7 +3516,7 @@
         <v>0.63381856399091596</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.375</v>
       </c>
@@ -3472,7 +3524,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.39583333333333298</v>
       </c>
@@ -3480,7 +3532,7 @@
         <v>2.4300650562130901</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.41666666666666702</v>
       </c>
@@ -3488,7 +3540,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0.4375</v>
       </c>
@@ -3496,7 +3548,7 @@
         <v>3.0298431360903701</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0.45833333333333298</v>
       </c>
@@ -3504,7 +3556,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.47916666666666702</v>
       </c>
@@ -3512,7 +3564,7 @@
         <v>3.9160460858832198</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -3520,7 +3572,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.52083333333333304</v>
       </c>
@@ -3528,7 +3580,7 @@
         <v>3.9354522377357699</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.54166666666666696</v>
       </c>
@@ -3536,7 +3588,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.5625</v>
       </c>
@@ -3544,7 +3596,7 @@
         <v>3.70116613342593</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>0.58333333333333304</v>
       </c>
@@ -3552,7 +3604,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0.60416666666666696</v>
       </c>
@@ -3560,7 +3612,7 @@
         <v>3.1572305098076399</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.625</v>
       </c>
@@ -3568,7 +3620,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.64583333333333304</v>
       </c>
@@ -3576,7 +3628,7 @@
         <v>2.51909373400157</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.66666666666666696</v>
       </c>
@@ -3584,7 +3636,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.6875</v>
       </c>
@@ -3592,7 +3644,7 @@
         <v>0.15423519498469501</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.70833333333333304</v>
       </c>
@@ -3600,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>0.72916666666666696</v>
       </c>
@@ -3608,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0.75</v>
       </c>
@@ -3616,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.77083333333333304</v>
       </c>
@@ -3624,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.79166666666666696</v>
       </c>
@@ -3632,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.8125</v>
       </c>
@@ -3640,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.83333333333333304</v>
       </c>
@@ -3648,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.85416666666666696</v>
       </c>
@@ -3656,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>0.875</v>
       </c>
@@ -3664,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0.89583333333333304</v>
       </c>
@@ -3672,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.91666666666666696</v>
       </c>
@@ -3680,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.9375</v>
       </c>
@@ -3688,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.95833333333333304</v>
       </c>
@@ -3696,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.97916666666666696</v>
       </c>
@@ -3718,22 +3770,22 @@
       <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="9.140625" style="1"/>
+    <col min="9" max="18" width="9.125" style="1"/>
     <col min="19" max="19" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3768,7 +3820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -3803,7 +3855,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -3838,7 +3890,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3873,7 +3925,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6.25E-2</v>
       </c>
@@ -3908,7 +3960,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -3943,7 +3995,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.104166666666667</v>
       </c>
@@ -3978,7 +4030,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.125</v>
       </c>
@@ -4013,7 +4065,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.14583333333333301</v>
       </c>
@@ -4048,7 +4100,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.16666666666666699</v>
       </c>
@@ -4083,7 +4135,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.1875</v>
       </c>
@@ -4118,7 +4170,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.20833333333333301</v>
       </c>
@@ -4153,7 +4205,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.22916666666666699</v>
       </c>
@@ -4188,7 +4240,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.25</v>
       </c>
@@ -4223,7 +4275,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.27083333333333298</v>
       </c>
@@ -4258,7 +4310,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0.29166666666666702</v>
       </c>
@@ -4293,7 +4345,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0.3125</v>
       </c>
@@ -4328,7 +4380,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.33333333333333298</v>
       </c>
@@ -4363,7 +4415,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.35416666666666702</v>
       </c>
@@ -4398,7 +4450,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.375</v>
       </c>
@@ -4433,7 +4485,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.39583333333333298</v>
       </c>
@@ -4468,7 +4520,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.41666666666666702</v>
       </c>
@@ -4503,7 +4555,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0.4375</v>
       </c>
@@ -4538,7 +4590,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0.45833333333333298</v>
       </c>
@@ -4573,7 +4625,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.47916666666666702</v>
       </c>
@@ -4608,7 +4660,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -4643,7 +4695,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.52083333333333304</v>
       </c>
@@ -4678,7 +4730,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.54166666666666696</v>
       </c>
@@ -4713,7 +4765,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.5625</v>
       </c>
@@ -4748,7 +4800,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>0.58333333333333304</v>
       </c>
@@ -4783,7 +4835,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0.60416666666666696</v>
       </c>
@@ -4818,7 +4870,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.625</v>
       </c>
@@ -4853,7 +4905,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.64583333333333304</v>
       </c>
@@ -4888,7 +4940,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.66666666666666696</v>
       </c>
@@ -4923,7 +4975,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.6875</v>
       </c>
@@ -4958,7 +5010,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.70833333333333304</v>
       </c>
@@ -4993,7 +5045,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>0.72916666666666696</v>
       </c>
@@ -5028,7 +5080,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0.75</v>
       </c>
@@ -5063,7 +5115,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.77083333333333304</v>
       </c>
@@ -5098,7 +5150,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.79166666666666696</v>
       </c>
@@ -5133,7 +5185,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.8125</v>
       </c>
@@ -5168,7 +5220,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.83333333333333304</v>
       </c>
@@ -5203,7 +5255,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.85416666666666696</v>
       </c>
@@ -5238,7 +5290,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>0.875</v>
       </c>
@@ -5273,7 +5325,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0.89583333333333304</v>
       </c>
@@ -5308,7 +5360,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.91666666666666696</v>
       </c>
@@ -5343,7 +5395,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.9375</v>
       </c>
@@ -5378,7 +5430,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.95833333333333304</v>
       </c>
@@ -5413,7 +5465,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.97916666666666696</v>
       </c>
@@ -5458,23 +5510,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1"/>
+    <col min="6" max="6" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5491,7 +5543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -5511,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -5531,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -5551,7 +5603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6.25E-2</v>
       </c>
@@ -5565,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -5579,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.104166666666667</v>
       </c>
@@ -5593,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.125</v>
       </c>
@@ -5607,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.14583333333333301</v>
       </c>
@@ -5621,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.16666666666666699</v>
       </c>
@@ -5635,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.1875</v>
       </c>
@@ -5649,7 +5701,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.20833333333333301</v>
       </c>
@@ -5663,7 +5715,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.22916666666666699</v>
       </c>
@@ -5677,7 +5729,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.25</v>
       </c>
@@ -5691,7 +5743,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.27083333333333298</v>
       </c>
@@ -5705,7 +5757,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0.29166666666666702</v>
       </c>
@@ -5719,7 +5771,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0.3125</v>
       </c>
@@ -5733,7 +5785,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.33333333333333298</v>
       </c>
@@ -5747,7 +5799,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.35416666666666702</v>
       </c>
@@ -5761,7 +5813,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.375</v>
       </c>
@@ -5775,7 +5827,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.39583333333333298</v>
       </c>
@@ -5789,7 +5841,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.41666666666666702</v>
       </c>
@@ -5803,7 +5855,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0.4375</v>
       </c>
@@ -5817,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0.45833333333333298</v>
       </c>
@@ -5831,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.47916666666666702</v>
       </c>
@@ -5845,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -5859,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.52083333333333304</v>
       </c>
@@ -5873,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.54166666666666696</v>
       </c>
@@ -5887,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.5625</v>
       </c>
@@ -5901,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>0.58333333333333304</v>
       </c>
@@ -5915,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0.60416666666666696</v>
       </c>
@@ -5929,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.625</v>
       </c>
@@ -5943,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.64583333333333304</v>
       </c>
@@ -5957,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.66666666666666696</v>
       </c>
@@ -5971,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.6875</v>
       </c>
@@ -5985,7 +6037,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.70833333333333304</v>
       </c>
@@ -5999,7 +6051,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>0.72916666666666696</v>
       </c>
@@ -6013,7 +6065,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0.75</v>
       </c>
@@ -6027,7 +6079,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.77083333333333304</v>
       </c>
@@ -6041,7 +6093,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.79166666666666696</v>
       </c>
@@ -6055,7 +6107,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.8125</v>
       </c>
@@ -6069,7 +6121,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.83333333333333304</v>
       </c>
@@ -6083,7 +6135,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.85416666666666696</v>
       </c>
@@ -6097,7 +6149,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>0.875</v>
       </c>
@@ -6111,7 +6163,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0.89583333333333304</v>
       </c>
@@ -6125,7 +6177,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.91666666666666696</v>
       </c>
@@ -6139,7 +6191,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.9375</v>
       </c>
@@ -6153,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.95833333333333304</v>
       </c>
@@ -6167,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.97916666666666696</v>
       </c>
